--- a/STEP5/PlasForest_Summary.xlsx
+++ b/STEP5/PlasForest_Summary.xlsx
@@ -1866,15 +1866,18 @@
   </sheetPr>
   <dimension ref="A1:G358"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A304" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A155" activeCellId="0" sqref="A155"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="42.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="32.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="22.23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.89"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
